--- a/data/trans_orig/P14B16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B16-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0148A7-B1C8-4835-AE02-59144BFA1F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D420F93-E013-4914-BA68-560EFDF4322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57143645-FB37-40A3-9CE3-0FB927CF88D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{837BC3AD-C7A1-4354-B842-1A5C347A5C70}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="484">
   <si>
     <t>Población cuya alergia crónica le limita en 2012 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -85,1399 +85,1411 @@
     <t>59,32%</t>
   </si>
   <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>51,06%</t>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>74,61%</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
   </si>
   <si>
     <t>68,84%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
     <t>50,67%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>14,94%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
   </si>
   <si>
     <t>79,84%</t>
   </si>
   <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
   </si>
   <si>
     <t>19,51%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
   </si>
   <si>
     <t>23,85%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>29,65%</t>
   </si>
   <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
+    <t>89,75%</t>
   </si>
   <si>
     <t>87,68%</t>
   </si>
   <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>45,85%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
   </si>
   <si>
     <t>54,15%</t>
   </si>
   <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
   </si>
   <si>
     <t>72,52%</t>
   </si>
   <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>64,72%</t>
   </si>
   <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>84,48%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>14,35%</t>
   </si>
   <si>
-    <t>5,47%</t>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>19,14%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>85,65%</t>
   </si>
   <si>
-    <t>94,53%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
   </si>
   <si>
     <t>80,86%</t>
   </si>
   <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>23,48%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
   </si>
   <si>
     <t>86,22%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>70,52%</t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>76,52%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
   </si>
   <si>
     <t>13,67%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>91,08%</t>
   </si>
   <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>86,33%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>88,1%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>17,82%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
 </sst>
 </file>
@@ -1889,7 +1901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3996BB88-69E6-4305-BD9C-404B2F3BADD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E326F-036C-47BA-BBA2-81A0EE1564C0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3402,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A848C9A1-B16D-4BB5-AC37-5D3CB903D165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C0B7A3-0897-4679-AC90-6E95277FF44E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4021,13 +4033,13 @@
         <v>13828</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4054,13 @@
         <v>14885</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4057,13 +4069,13 @@
         <v>25759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -4072,13 +4084,13 @@
         <v>40644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4158,13 @@
         <v>2013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4161,13 +4173,13 @@
         <v>7098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4176,13 +4188,13 @@
         <v>9111</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,10 +4209,10 @@
         <v>9633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>83</v>
@@ -4212,13 +4224,13 @@
         <v>11496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4227,13 +4239,13 @@
         <v>21129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4313,13 @@
         <v>6888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4316,13 +4328,13 @@
         <v>10864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4331,13 +4343,13 @@
         <v>17752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4364,13 @@
         <v>9590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4367,13 +4379,13 @@
         <v>8646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -4382,13 +4394,13 @@
         <v>18236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4468,13 @@
         <v>2906</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4471,13 +4483,13 @@
         <v>11652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -4486,13 +4498,13 @@
         <v>14557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4519,13 @@
         <v>16543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -4522,13 +4534,13 @@
         <v>41120</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -4537,13 +4549,13 @@
         <v>57664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4623,13 @@
         <v>8409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4626,13 +4638,13 @@
         <v>16165</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -4641,13 +4653,13 @@
         <v>24574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4674,13 @@
         <v>40960</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -4677,13 +4689,13 @@
         <v>60393</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -4692,13 +4704,13 @@
         <v>101353</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4778,13 @@
         <v>39933</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -4781,13 +4793,13 @@
         <v>83494</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>116</v>
@@ -4796,13 +4808,13 @@
         <v>123427</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>61</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4829,13 @@
         <v>127536</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>189</v>
@@ -4832,13 +4844,13 @@
         <v>198077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>310</v>
@@ -4847,13 +4859,13 @@
         <v>325613</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>69</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4933,7 +4945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7606B853-473B-4991-928D-3EC833A4E830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF23F4-CF0D-4A48-83E0-A06861D90242}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4950,7 +4962,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5057,13 +5069,13 @@
         <v>7221</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5072,13 +5084,13 @@
         <v>969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5087,13 +5099,13 @@
         <v>8189</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5120,13 @@
         <v>23703</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -5123,10 +5135,10 @@
         <v>12665</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>83</v>
@@ -5138,13 +5150,13 @@
         <v>36368</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,13 +5224,13 @@
         <v>10303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5227,13 +5239,13 @@
         <v>10642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -5242,13 +5254,13 @@
         <v>20945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5263,13 +5275,13 @@
         <v>53588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -5278,13 +5290,13 @@
         <v>59115</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -5293,13 +5305,13 @@
         <v>112703</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5379,13 @@
         <v>910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5382,13 +5394,13 @@
         <v>7426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5397,13 +5409,13 @@
         <v>8337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,10 +5430,10 @@
         <v>28078</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>83</v>
@@ -5433,13 +5445,13 @@
         <v>31279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -5448,13 +5460,13 @@
         <v>59355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5534,13 @@
         <v>7479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5537,13 +5549,13 @@
         <v>6079</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5552,13 +5564,13 @@
         <v>13558</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5585,13 @@
         <v>8833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5588,13 +5600,13 @@
         <v>16038</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -5603,13 +5615,13 @@
         <v>24871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5689,13 @@
         <v>2712</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5692,13 +5704,13 @@
         <v>4243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5707,13 +5719,13 @@
         <v>6955</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5740,13 @@
         <v>17668</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5743,13 +5755,13 @@
         <v>23096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -5758,13 +5770,13 @@
         <v>40764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5844,13 @@
         <v>5529</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5847,13 +5859,13 @@
         <v>9250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -5862,13 +5874,13 @@
         <v>14779</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5895,13 @@
         <v>32991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -5898,13 +5910,13 @@
         <v>39069</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -5913,13 +5925,13 @@
         <v>72059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5999,13 @@
         <v>9979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6002,13 +6014,13 @@
         <v>34512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6017,13 +6029,13 @@
         <v>44492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6050,13 @@
         <v>62425</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>112</v>
@@ -6053,13 +6065,13 @@
         <v>82567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>175</v>
@@ -6068,13 +6080,13 @@
         <v>144992</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,13 +6154,13 @@
         <v>4979</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -6157,13 +6169,13 @@
         <v>12826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -6172,13 +6184,13 @@
         <v>17805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6205,13 @@
         <v>50856</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>103</v>
@@ -6208,13 +6220,13 @@
         <v>80985</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -6223,13 +6235,13 @@
         <v>131841</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6297,13 +6309,13 @@
         <v>49112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -6312,13 +6324,13 @@
         <v>85947</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>165</v>
@@ -6327,13 +6339,13 @@
         <v>135060</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6360,13 @@
         <v>278140</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>500</v>
@@ -6363,13 +6375,13 @@
         <v>344813</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>760</v>
@@ -6378,13 +6390,13 @@
         <v>622953</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B16-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B16-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D420F93-E013-4914-BA68-560EFDF4322C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F69627-9AAB-492A-A18D-C206E0EE7E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{837BC3AD-C7A1-4354-B842-1A5C347A5C70}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66E0BD5C-D599-4587-912B-31D3CC243905}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="468">
   <si>
     <t>Población cuya alergia crónica le limita en 2012 (Tasa respuesta: 6,15%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>59,32%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
   </si>
   <si>
     <t>64,43%</t>
   </si>
   <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>40,68%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
   </si>
   <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>31,42%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -262,1014 +262,978 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,51%</t>
+    <t>32,83%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>10,75%</t>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>69,88%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2016 (Tasa respuesta: 6,49%)</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>45,07%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
   </si>
   <si>
     <t>54,93%</t>
   </si>
   <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2015 (Tasa respuesta: 6,49%)</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>94,59%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>74,54%</t>
   </si>
   <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
   </si>
   <si>
     <t>37,01%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>26,19%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
   </si>
   <si>
     <t>25,39%</t>
   </si>
   <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>Población cuya alergia crónica le limita en 2023 (Tasa respuesta: 10,58%)</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
     <t>74,03%</t>
   </si>
   <si>
@@ -1351,9 +1315,6 @@
     <t>23,48%</t>
   </si>
   <si>
-    <t>17,22%</t>
-  </si>
-  <si>
     <t>29,9%</t>
   </si>
   <si>
@@ -1381,9 +1342,6 @@
     <t>70,1%</t>
   </si>
   <si>
-    <t>82,78%</t>
-  </si>
-  <si>
     <t>8,92%</t>
   </si>
   <si>
@@ -1438,9 +1396,6 @@
     <t>92,5%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
     <t>10,95%</t>
   </si>
   <si>
@@ -1463,9 +1418,6 @@
   </si>
   <si>
     <t>20,88%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
   </si>
   <si>
     <t>79,36%</t>
@@ -1901,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002E326F-036C-47BA-BBA2-81A0EE1564C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC06B72-9628-466B-823D-C95EC20B0317}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3095,10 +3047,10 @@
         <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -3107,13 +3059,13 @@
         <v>20405</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3122,13 +3074,13 @@
         <v>35738</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3095,13 @@
         <v>23427</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -3158,13 +3110,13 @@
         <v>31602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -3173,13 +3125,13 @@
         <v>55029</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3199,13 @@
         <v>53300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H28" s="7">
         <v>72</v>
@@ -3262,13 +3214,13 @@
         <v>76889</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
         <v>117</v>
@@ -3277,13 +3229,13 @@
         <v>130189</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3250,13 @@
         <v>120380</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="H29" s="7">
         <v>166</v>
@@ -3313,13 +3265,13 @@
         <v>178426</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="M29" s="7">
         <v>283</v>
@@ -3328,13 +3280,13 @@
         <v>298806</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,7 +3342,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C0B7A3-0897-4679-AC90-6E95277FF44E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DB5E54-1497-456E-8FBB-0CB3DAE5B59C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,7 +3383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3538,13 +3490,13 @@
         <v>5406</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3553,13 +3505,13 @@
         <v>13486</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3568,13 +3520,13 @@
         <v>18893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3541,13 @@
         <v>13137</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3604,13 +3556,13 @@
         <v>13702</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -3619,13 +3571,13 @@
         <v>26838</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3645,13 @@
         <v>4088</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3708,13 +3660,13 @@
         <v>10346</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3723,13 +3675,13 @@
         <v>14434</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3696,13 @@
         <v>14349</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -3759,13 +3711,13 @@
         <v>27908</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -3774,13 +3726,13 @@
         <v>42257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3800,13 @@
         <v>5532</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3863,13 +3815,13 @@
         <v>4746</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -3878,13 +3830,13 @@
         <v>10278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3851,13 @@
         <v>8439</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -3914,13 +3866,13 @@
         <v>9053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>19</v>
@@ -3929,13 +3881,13 @@
         <v>17492</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4003,13 +3955,13 @@
         <v>4690</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -4018,13 +3970,13 @@
         <v>9138</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -4033,13 +3985,13 @@
         <v>13828</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4006,13 @@
         <v>14885</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -4069,13 +4021,13 @@
         <v>25759</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -4084,13 +4036,13 @@
         <v>40644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4110,13 @@
         <v>2013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4173,13 +4125,13 @@
         <v>7098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -4188,13 +4140,13 @@
         <v>9111</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,10 +4161,10 @@
         <v>9633</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>83</v>
@@ -4224,13 +4176,13 @@
         <v>11496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4239,13 +4191,13 @@
         <v>21129</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4265,13 @@
         <v>6888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -4328,13 +4280,13 @@
         <v>10864</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -4343,13 +4295,13 @@
         <v>17752</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4316,13 @@
         <v>9590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4379,13 +4331,13 @@
         <v>8646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -4394,13 +4346,13 @@
         <v>18236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4420,13 @@
         <v>2906</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -4483,13 +4435,13 @@
         <v>11652</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -4498,13 +4450,13 @@
         <v>14557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,13 +4471,13 @@
         <v>16543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -4534,13 +4486,13 @@
         <v>41120</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -4549,13 +4501,13 @@
         <v>57664</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,13 +4575,13 @@
         <v>8409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -4638,13 +4590,13 @@
         <v>16165</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -4653,13 +4605,13 @@
         <v>24574</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4626,13 @@
         <v>40960</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>56</v>
@@ -4689,13 +4641,13 @@
         <v>60393</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>36</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -4704,13 +4656,13 @@
         <v>101353</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4730,13 @@
         <v>39933</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -4793,13 +4745,13 @@
         <v>83494</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>116</v>
@@ -4808,13 +4760,13 @@
         <v>123427</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,13 +4781,13 @@
         <v>127536</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>189</v>
@@ -4844,13 +4796,13 @@
         <v>198077</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>310</v>
@@ -4859,13 +4811,13 @@
         <v>325613</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,7 +4873,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +4897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF23F4-CF0D-4A48-83E0-A06861D90242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD022F3-3F0C-4558-8215-F1BFEE2A2184}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4962,7 +4914,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5069,13 +5021,13 @@
         <v>7221</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5084,13 +5036,13 @@
         <v>969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5099,13 +5051,13 @@
         <v>8189</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5072,13 @@
         <v>23703</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>28</v>
@@ -5135,10 +5087,10 @@
         <v>12665</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>83</v>
@@ -5150,13 +5102,13 @@
         <v>36368</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5176,13 @@
         <v>10303</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5239,13 +5191,13 @@
         <v>10642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -5254,13 +5206,13 @@
         <v>20945</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5227,13 @@
         <v>53588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -5290,13 +5242,13 @@
         <v>59115</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>111</v>
@@ -5305,13 +5257,13 @@
         <v>112703</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5331,13 @@
         <v>910</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5394,13 +5346,13 @@
         <v>7426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5409,13 +5361,13 @@
         <v>8337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,10 +5382,10 @@
         <v>28078</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>83</v>
@@ -5445,13 +5397,13 @@
         <v>31279</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -5460,13 +5412,13 @@
         <v>59355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5486,13 @@
         <v>7479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5549,13 +5501,13 @@
         <v>6079</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -5564,13 +5516,13 @@
         <v>13558</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5537,13 @@
         <v>8833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -5600,13 +5552,13 @@
         <v>16038</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -5615,13 +5567,13 @@
         <v>24871</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>314</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5641,13 @@
         <v>2712</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5704,13 +5656,13 @@
         <v>4243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5719,13 +5671,13 @@
         <v>6955</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5692,13 @@
         <v>17668</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -5755,13 +5707,13 @@
         <v>23096</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -5770,13 +5722,13 @@
         <v>40764</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5796,13 @@
         <v>5529</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -5859,13 +5811,13 @@
         <v>9250</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -5874,13 +5826,13 @@
         <v>14779</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5847,13 @@
         <v>32991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>68</v>
@@ -5910,13 +5862,13 @@
         <v>39069</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>108</v>
@@ -5925,13 +5877,13 @@
         <v>72059</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5951,13 @@
         <v>9979</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6014,13 +5966,13 @@
         <v>34512</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>60</v>
@@ -6029,13 +5981,13 @@
         <v>44492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>437</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6002,13 @@
         <v>62425</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>112</v>
@@ -6065,13 +6017,13 @@
         <v>82567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>175</v>
@@ -6080,13 +6032,13 @@
         <v>144992</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6106,13 @@
         <v>4979</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>18</v>
@@ -6169,13 +6121,13 @@
         <v>12826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -6184,13 +6136,13 @@
         <v>17805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,13 +6157,13 @@
         <v>50856</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>103</v>
@@ -6220,13 +6172,13 @@
         <v>80985</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>145</v>
@@ -6235,13 +6187,13 @@
         <v>131841</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6261,13 @@
         <v>49112</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>222</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>123</v>
@@ -6324,13 +6276,13 @@
         <v>85947</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>165</v>
@@ -6339,13 +6291,13 @@
         <v>135060</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6312,13 @@
         <v>278140</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>500</v>
@@ -6375,13 +6327,13 @@
         <v>344813</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>760</v>
@@ -6390,13 +6342,13 @@
         <v>622953</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6452,7 +6404,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
